--- a/static/base/archivo/Usuario.xlsx
+++ b/static/base/archivo/Usuario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\PycharmProjects\analuciamialcaldesa\static\base\archivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E2114-916F-40EE-A565-FDFECA95DE52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EA3EE6-88F9-43DF-82F1-AA7C706D8F44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>pbkdf2_sha256$216000$cDroDUyqEzwM$nR8Ng/gSC2pCyulOvjKhR1WYx841RnE1bhNxiLNiDZs=</t>
+    <t>pbkdf2_sha256$216000$QCweSBEhVJ9D$dUB0IIZjaTrMoBaZlacRJ4ZphAxCkI855yofH4Lk9Pg=</t>
   </si>
   <si>
     <t>2021-02-18 13:21:19</t>
@@ -97,7 +97,7 @@
     <t>69563355</t>
   </si>
   <si>
-    <t>pbkdf2_sha256$216000$Z2uBHArWEHK2$zGv1wWp1CJu+4dUWF3FMRGYMsj6KtiFM0hkeL1jV620=</t>
+    <t>pbkdf2_sha256$216000$WCyBK52l42zM$Zj5RK3Oof1tXPiQSJY98NGGSuvAN8gXokJcOf0SCH5A=</t>
   </si>
   <si>
     <t>roly</t>
@@ -109,7 +109,7 @@
     <t>Roly</t>
   </si>
   <si>
-    <t>Zeballos Paz</t>
+    <t>Zeballos Paz G</t>
   </si>
   <si>
     <t>2021-02-15 13:57:49</t>
@@ -121,7 +121,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>pbkdf2_sha256$216000$4z20paY8W0av$O+frJKrBC4AT3YO76D/wNgb0J6Aux+n4gP5wPdAmyUw=</t>
+    <t>pbkdf2_sha256$216000$wZ7l6v1hq5CR$scNYUoXOmcjAWACHXjQrcitDziGbTvR5Ak6l8FDODr8=</t>
   </si>
   <si>
     <t>yara</t>
@@ -489,7 +489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="A2:N2"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
